--- a/tests/bin/OpenRefine_exports/1_JR2_2019.xlsx
+++ b/tests/bin/OpenRefine_exports/1_JR2_2019.xlsx
@@ -48,12 +48,6 @@
     <t>Data_Type</t>
   </si>
   <si>
-    <t>R4_Month</t>
-  </si>
-  <si>
-    <t>R4_Count</t>
-  </si>
-  <si>
     <t>PARLIAMENTARY PAPER</t>
   </si>
   <si>
@@ -73,6 +67,12 @@
   </si>
   <si>
     <t>Article</t>
+  </si>
+  <si>
+    <t>Usage_Date</t>
+  </si>
+  <si>
+    <t>Usage_Count</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,45 +431,45 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1">
         <v>43282</v>
